--- a/MBLY.xlsx
+++ b/MBLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8FE42A-26E8-4294-820E-0F8655314D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFDD49-B7EC-D349-ABAD-DB54D67C3CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46095" yWindow="2475" windowWidth="27405" windowHeight="15345" xr2:uid="{5FA5EC62-F57A-411C-B9A5-B1BE3D282ECB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{5FA5EC62-F57A-411C-B9A5-B1BE3D282ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -148,8 +148,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -176,13 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,9 +594,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -593,7 +607,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -608,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +631,7 @@
         <v>10973.48115831</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -639,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -658,25 +672,25 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,7 +761,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -786,108 +800,126 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>458</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>454</v>
       </c>
-      <c r="K5">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>439</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>450</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>450</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="4">
         <v>1386</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="4">
         <v>1869</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="4">
         <v>2079</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <f>SUM(K5:N5)</f>
         <v>1578</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
         <v>251</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>230</v>
       </c>
-      <c r="K6">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2">
         <v>185</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>230</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="2">
         <v>731</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
         <v>947</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>1032</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
         <f>+G5-G6</f>
         <v>207</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>+H5-H6</f>
         <v>224</v>
       </c>
-      <c r="K7">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2">
         <f>+K5-K6</f>
         <v>54</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>+L5-L6</f>
         <v>209</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <f>+W5-W6</f>
         <v>655</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <f>+X5-X6</f>
         <v>922</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <f>+Y5-Y6</f>
         <v>1047</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -904,7 +936,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -921,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -938,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -959,7 +991,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -980,7 +1012,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1050,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1088,7 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1109,7 @@
         <v>-0.10669975186104218</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1126,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G24" s="1">
         <v>171</v>
       </c>
@@ -1110,7 +1142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G25" s="1">
         <v>-26</v>
       </c>
@@ -1126,7 +1158,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G26">
         <f>+G24+G25</f>
         <v>145</v>
